--- a/analysis/51_feature_analysis.xlsx
+++ b/analysis/51_feature_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m221138/RA_project/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m221138/RA_plasma_metabolites/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63F4247-B170-AA49-A0A0-90D76EB249B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30A20CF-14AC-BC40-BD30-718ACA19D46F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="480" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9611" uniqueCount="3063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9522" uniqueCount="3063">
   <si>
     <t>node</t>
   </si>
@@ -11367,10 +11367,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D250198-F6B3-2043-8F23-1BCFDA07C244}">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11381,7 +11381,7 @@
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:10">
       <c r="A1" s="12" t="s">
         <v>3056</v>
       </c>
@@ -11405,7 +11405,7 @@
       </c>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:10">
       <c r="A2" s="14">
         <v>100020546</v>
       </c>
@@ -11433,26 +11433,9 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F2)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>1753</v>
-      </c>
-      <c r="K2">
-        <f>MATCH(J2,B:B,0)</f>
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1753</v>
-      </c>
-      <c r="N2">
-        <f>MATCH(M2,B:B,0)</f>
-        <v>29</v>
-      </c>
-      <c r="O2">
-        <f>COUNTIF(N:N,"&gt;0")</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="14">
         <v>100001635</v>
       </c>
@@ -11480,22 +11463,9 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F3)</f>
         <v>C06231</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>1851</v>
-      </c>
-      <c r="K3" t="e">
-        <f t="shared" ref="K3:K12" si="0">MATCH(J3,B:B,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1440</v>
-      </c>
-      <c r="N3" t="e">
-        <f t="shared" ref="N3:N66" si="1">MATCH(M3,B:B,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="14">
         <v>100002466</v>
       </c>
@@ -11523,22 +11493,9 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>778</v>
-      </c>
-      <c r="K4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2445</v>
-      </c>
-      <c r="N4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="14">
         <v>100003397</v>
       </c>
@@ -11566,22 +11523,9 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F5)</f>
         <v>C01104</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>1297</v>
-      </c>
-      <c r="K5" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M5" t="s">
-        <v>551</v>
-      </c>
-      <c r="N5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="14">
         <v>344</v>
       </c>
@@ -11609,22 +11553,9 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F6)</f>
         <v>C00581</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>2686</v>
-      </c>
-      <c r="K6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M6" t="s">
-        <v>943</v>
-      </c>
-      <c r="N6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="14">
         <v>100001266</v>
       </c>
@@ -11652,22 +11583,9 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F7)</f>
         <v>C02562</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1362</v>
-      </c>
-      <c r="N7" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="14">
         <v>100001254</v>
       </c>
@@ -11695,22 +11613,9 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F8)</f>
         <v>C03137</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="M8" t="s">
-        <v>2456</v>
-      </c>
-      <c r="N8" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="14">
         <v>100020866</v>
       </c>
@@ -11738,22 +11643,9 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F9)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>641</v>
-      </c>
-      <c r="K9" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M9" t="s">
-        <v>593</v>
-      </c>
-      <c r="N9" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="14">
         <v>100015831</v>
       </c>
@@ -11781,22 +11673,9 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F10)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>1108</v>
-      </c>
-      <c r="K10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1762</v>
-      </c>
-      <c r="N10" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="14">
         <v>100002254</v>
       </c>
@@ -11824,22 +11703,9 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F11)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="K11" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M11" t="s">
-        <v>2117</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="14">
         <v>100001950</v>
       </c>
@@ -11867,22 +11733,9 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F12)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="14" t="s">
-        <v>2575</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="M12" t="s">
-        <v>223</v>
-      </c>
-      <c r="N12" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="14">
         <v>100000939</v>
       </c>
@@ -11910,15 +11763,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F13)</f>
         <v>0</v>
       </c>
-      <c r="M13" t="s">
-        <v>3048</v>
-      </c>
-      <c r="N13" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="14">
         <v>100000096</v>
       </c>
@@ -11946,15 +11792,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F14)</f>
         <v>C01035</v>
       </c>
-      <c r="M14" t="s">
-        <v>1851</v>
-      </c>
-      <c r="N14" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="14">
         <v>171</v>
       </c>
@@ -11982,15 +11821,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F15)</f>
         <v>C00262</v>
       </c>
-      <c r="M15" t="s">
-        <v>1763</v>
-      </c>
-      <c r="N15" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="14">
         <v>100000042</v>
       </c>
@@ -12018,15 +11850,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F16)</f>
         <v>C01152</v>
       </c>
-      <c r="M16" t="s">
-        <v>260</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="14">
         <v>100001586</v>
       </c>
@@ -12054,15 +11879,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F17)</f>
         <v>C00257</v>
       </c>
-      <c r="M17" t="s">
-        <v>2074</v>
-      </c>
-      <c r="N17" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="14">
         <v>100001767</v>
       </c>
@@ -12090,15 +11908,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F18)</f>
         <v>0</v>
       </c>
-      <c r="M18" t="s">
-        <v>778</v>
-      </c>
-      <c r="N18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="14">
         <v>100008933</v>
       </c>
@@ -12126,15 +11937,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F19)</f>
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>1006</v>
-      </c>
-      <c r="N19" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="14">
         <v>796</v>
       </c>
@@ -12162,15 +11966,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F20)</f>
         <v>C00109</v>
       </c>
-      <c r="M20" t="s">
-        <v>2928</v>
-      </c>
-      <c r="N20" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="14">
         <v>407</v>
       </c>
@@ -12198,15 +11995,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F21)</f>
         <v>C00047</v>
       </c>
-      <c r="M21" t="s">
-        <v>1412</v>
-      </c>
-      <c r="N21" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="14">
         <v>1162</v>
       </c>
@@ -12234,15 +12024,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F22)</f>
         <v>C00270</v>
       </c>
-      <c r="M22" t="s">
-        <v>269</v>
-      </c>
-      <c r="N22" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="14">
         <v>100020427</v>
       </c>
@@ -12270,15 +12053,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F23)</f>
         <v>0</v>
       </c>
-      <c r="M23" t="s">
-        <v>2540</v>
-      </c>
-      <c r="N23" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="14">
         <v>100003151</v>
       </c>
@@ -12306,15 +12082,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F24)</f>
         <v>0</v>
       </c>
-      <c r="M24" t="s">
-        <v>366</v>
-      </c>
-      <c r="N24" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="14">
         <v>100003892</v>
       </c>
@@ -12342,15 +12111,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F25)</f>
         <v>0</v>
       </c>
-      <c r="M25" t="s">
-        <v>2829</v>
-      </c>
-      <c r="N25" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="14">
         <v>565</v>
       </c>
@@ -12378,15 +12140,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F26)</f>
         <v>C00078</v>
       </c>
-      <c r="M26" t="s">
-        <v>948</v>
-      </c>
-      <c r="N26" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="14">
         <v>100002945</v>
       </c>
@@ -12414,15 +12169,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F27)</f>
         <v>0</v>
       </c>
-      <c r="M27" t="s">
-        <v>1297</v>
-      </c>
-      <c r="N27" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="14">
         <v>100001051</v>
       </c>
@@ -12450,15 +12198,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F28)</f>
         <v>C01152</v>
       </c>
-      <c r="M28" t="s">
-        <v>2686</v>
-      </c>
-      <c r="N28" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="14">
         <v>100000257</v>
       </c>
@@ -12486,15 +12227,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F29)</f>
         <v>C00191</v>
       </c>
-      <c r="M29" t="s">
-        <v>770</v>
-      </c>
-      <c r="N29" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="14">
         <v>1087</v>
       </c>
@@ -12522,15 +12256,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F30)</f>
         <v>C08316</v>
       </c>
-      <c r="M30" t="s">
-        <v>923</v>
-      </c>
-      <c r="N30" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="14">
         <v>100002488</v>
       </c>
@@ -12558,15 +12285,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F31)</f>
         <v>C17662</v>
       </c>
-      <c r="M31" t="s">
-        <v>2300</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="14">
         <v>503</v>
       </c>
@@ -12594,15 +12314,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F32)</f>
         <v>C00065</v>
       </c>
-      <c r="M32" t="s">
-        <v>2487</v>
-      </c>
-      <c r="N32" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="14">
         <v>100000010</v>
       </c>
@@ -12630,15 +12343,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F33)</f>
         <v>C05629</v>
       </c>
-      <c r="M33" t="s">
-        <v>1238</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="14">
         <v>803</v>
       </c>
@@ -12666,15 +12372,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F34)</f>
         <v>C00159</v>
       </c>
-      <c r="M34" t="s">
-        <v>2794</v>
-      </c>
-      <c r="N34" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="14">
         <v>1090</v>
       </c>
@@ -12702,15 +12401,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F35)</f>
         <v>C00486</v>
       </c>
-      <c r="M35" t="s">
-        <v>92</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="14">
         <v>250</v>
       </c>
@@ -12738,15 +12430,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F36)</f>
         <v>C00500</v>
       </c>
-      <c r="M36" t="s">
-        <v>146</v>
-      </c>
-      <c r="N36" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="14">
         <v>100020414</v>
       </c>
@@ -12774,15 +12459,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F37)</f>
         <v>0</v>
       </c>
-      <c r="M37" t="s">
-        <v>449</v>
-      </c>
-      <c r="N37" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="14">
         <v>572</v>
       </c>
@@ -12810,15 +12488,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F38)</f>
         <v>C00031</v>
       </c>
-      <c r="M38" t="s">
-        <v>2033</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="14">
         <v>100009082</v>
       </c>
@@ -12846,15 +12517,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F39)</f>
         <v>0</v>
       </c>
-      <c r="M39" t="s">
-        <v>199</v>
-      </c>
-      <c r="N39" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="14">
         <v>100020425</v>
       </c>
@@ -12882,15 +12546,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F40)</f>
         <v>0</v>
       </c>
-      <c r="M40" t="s">
-        <v>1552</v>
-      </c>
-      <c r="N40" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="14">
         <v>100020423</v>
       </c>
@@ -12918,15 +12575,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F41)</f>
         <v>0</v>
       </c>
-      <c r="M41" t="s">
-        <v>1221</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="14">
         <v>100001092</v>
       </c>
@@ -12954,15 +12604,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F42)</f>
         <v>C01004</v>
       </c>
-      <c r="M42" t="s">
-        <v>2143</v>
-      </c>
-      <c r="N42" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="14">
         <v>1489</v>
       </c>
@@ -12990,15 +12633,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F43)</f>
         <v>C16512</v>
       </c>
-      <c r="M43" t="s">
-        <v>2066</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="14">
         <v>100001510</v>
       </c>
@@ -13026,15 +12662,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F44)</f>
         <v>C02180</v>
       </c>
-      <c r="M44" t="s">
-        <v>245</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="14">
         <v>1442</v>
       </c>
@@ -13062,15 +12691,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F45)</f>
         <v>0</v>
       </c>
-      <c r="M45" t="s">
-        <v>2220</v>
-      </c>
-      <c r="N45" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="14">
         <v>100001104</v>
       </c>
@@ -13098,15 +12720,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F46)</f>
         <v>0</v>
       </c>
-      <c r="M46" t="s">
-        <v>2476</v>
-      </c>
-      <c r="N46" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="14">
         <v>100002911</v>
       </c>
@@ -13134,15 +12749,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F47)</f>
         <v>0</v>
       </c>
-      <c r="M47" t="s">
-        <v>2281</v>
-      </c>
-      <c r="N47" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="14">
         <v>100021374</v>
       </c>
@@ -13170,15 +12778,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F48)</f>
         <v>0</v>
       </c>
-      <c r="M48" t="s">
-        <v>248</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="14">
         <v>338</v>
       </c>
@@ -13206,15 +12807,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F49)</f>
         <v>C00257</v>
       </c>
-      <c r="M49" t="s">
-        <v>713</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="14">
         <v>100015838</v>
       </c>
@@ -13242,15 +12836,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F50)</f>
         <v>0</v>
       </c>
-      <c r="M50" t="s">
-        <v>255</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="14">
         <v>100015839</v>
       </c>
@@ -13278,15 +12865,8 @@
         <f>INDEX('Data Profile'!L:L,'51 Features'!F51)</f>
         <v>0</v>
       </c>
-      <c r="M51" t="s">
-        <v>2121</v>
-      </c>
-      <c r="N51" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="14">
         <v>363</v>
       </c>
@@ -13313,256 +12893,6 @@
       <c r="H52" t="str">
         <f>INDEX('Data Profile'!L:L,'51 Features'!F52)</f>
         <v>C00137</v>
-      </c>
-      <c r="M52" t="s">
-        <v>708</v>
-      </c>
-      <c r="N52" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="M53" t="s">
-        <v>2851</v>
-      </c>
-      <c r="N53" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="M54" t="s">
-        <v>2633</v>
-      </c>
-      <c r="N54" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="M55" t="s">
-        <v>69</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="M56" t="s">
-        <v>1445</v>
-      </c>
-      <c r="N56" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="M57" t="s">
-        <v>641</v>
-      </c>
-      <c r="N57" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="M58" t="s">
-        <v>2147</v>
-      </c>
-      <c r="N58" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="M59" t="s">
-        <v>1352</v>
-      </c>
-      <c r="N59" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="M60" t="s">
-        <v>2453</v>
-      </c>
-      <c r="N60" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="M61" t="s">
-        <v>2846</v>
-      </c>
-      <c r="N61" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="M62" t="s">
-        <v>1693</v>
-      </c>
-      <c r="N62" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="M63" t="s">
-        <v>2473</v>
-      </c>
-      <c r="N63" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="M64" t="s">
-        <v>1996</v>
-      </c>
-      <c r="N64" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="65" spans="13:14">
-      <c r="M65" t="s">
-        <v>1593</v>
-      </c>
-      <c r="N65" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="13:14">
-      <c r="M66" t="s">
-        <v>1108</v>
-      </c>
-      <c r="N66" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="13:14">
-      <c r="M67" t="s">
-        <v>1688</v>
-      </c>
-      <c r="N67" t="e">
-        <f t="shared" ref="N67:N79" si="2">MATCH(M67,B:B,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="13:14">
-      <c r="M68" t="s">
-        <v>86</v>
-      </c>
-      <c r="N68" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="69" spans="13:14">
-      <c r="M69" t="s">
-        <v>2839</v>
-      </c>
-      <c r="N69" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="13:14">
-      <c r="M70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="N70" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="13:14">
-      <c r="M71" t="s">
-        <v>1986</v>
-      </c>
-      <c r="N71" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="13:14">
-      <c r="M72" t="s">
-        <v>627</v>
-      </c>
-      <c r="N72" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="13:14">
-      <c r="M73" t="s">
-        <v>419</v>
-      </c>
-      <c r="N73" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="74" spans="13:14">
-      <c r="M74" t="s">
-        <v>3021</v>
-      </c>
-      <c r="N74" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="75" spans="13:14">
-      <c r="M75" t="s">
-        <v>193</v>
-      </c>
-      <c r="N75" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="76" spans="13:14">
-      <c r="M76" t="s">
-        <v>739</v>
-      </c>
-      <c r="N76" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="77" spans="13:14">
-      <c r="M77" t="s">
-        <v>2575</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="13:14">
-      <c r="M78" t="s">
-        <v>2692</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="13:14">
-      <c r="M79" t="s">
-        <v>1951</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="2"/>
-        <v>15</v>
       </c>
     </row>
   </sheetData>
